--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.0479673185487</v>
+        <v>135.7046583333333</v>
       </c>
       <c r="H2">
-        <v>23.0479673185487</v>
+        <v>407.113975</v>
       </c>
       <c r="I2">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="J2">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>2038.467122505004</v>
+        <v>13427.53137362263</v>
       </c>
       <c r="R2">
-        <v>2038.467122505004</v>
+        <v>120847.7823626037</v>
       </c>
       <c r="S2">
-        <v>0.01284288787297415</v>
+        <v>0.06088115972090018</v>
       </c>
       <c r="T2">
-        <v>0.01284288787297415</v>
+        <v>0.06088115972090019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.0479673185487</v>
+        <v>135.7046583333333</v>
       </c>
       <c r="H3">
-        <v>23.0479673185487</v>
+        <v>407.113975</v>
       </c>
       <c r="I3">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="J3">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>3753.072543213025</v>
+        <v>22120.70551734781</v>
       </c>
       <c r="R3">
-        <v>3753.072543213025</v>
+        <v>199086.3496561303</v>
       </c>
       <c r="S3">
-        <v>0.02364536043749929</v>
+        <v>0.1002964855018851</v>
       </c>
       <c r="T3">
-        <v>0.02364536043749929</v>
+        <v>0.1002964855018851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.0479673185487</v>
+        <v>135.7046583333333</v>
       </c>
       <c r="H4">
-        <v>23.0479673185487</v>
+        <v>407.113975</v>
       </c>
       <c r="I4">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="J4">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>1424.837705451927</v>
+        <v>8874.556311530225</v>
       </c>
       <c r="R4">
-        <v>1424.837705451927</v>
+        <v>79871.006803772</v>
       </c>
       <c r="S4">
-        <v>0.008976858486595461</v>
+        <v>0.04023772242422457</v>
       </c>
       <c r="T4">
-        <v>0.008976858486595461</v>
+        <v>0.04023772242422458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.0479673185487</v>
+        <v>135.7046583333333</v>
       </c>
       <c r="H5">
-        <v>23.0479673185487</v>
+        <v>407.113975</v>
       </c>
       <c r="I5">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="J5">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>3233.849025308371</v>
+        <v>19578.49057844447</v>
       </c>
       <c r="R5">
-        <v>3233.849025308371</v>
+        <v>176206.4152060002</v>
       </c>
       <c r="S5">
-        <v>0.02037411345596044</v>
+        <v>0.08876994429087201</v>
       </c>
       <c r="T5">
-        <v>0.02037411345596044</v>
+        <v>0.08876994429087204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>225.401984005126</v>
+        <v>226.082006</v>
       </c>
       <c r="H6">
-        <v>225.401984005126</v>
+        <v>678.246018</v>
       </c>
       <c r="I6">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="J6">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>19935.57728503325</v>
+        <v>22370.07384904835</v>
       </c>
       <c r="R6">
-        <v>19935.57728503325</v>
+        <v>201330.6646414351</v>
       </c>
       <c r="S6">
-        <v>0.125599466838624</v>
+        <v>0.1014271351208775</v>
       </c>
       <c r="T6">
-        <v>0.125599466838624</v>
+        <v>0.1014271351208775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>225.401984005126</v>
+        <v>226.082006</v>
       </c>
       <c r="H7">
-        <v>225.401984005126</v>
+        <v>678.246018</v>
       </c>
       <c r="I7">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="J7">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>36703.88740418642</v>
+        <v>36852.77675002875</v>
       </c>
       <c r="R7">
-        <v>36703.88740418642</v>
+        <v>331674.9907502587</v>
       </c>
       <c r="S7">
-        <v>0.2312443037369014</v>
+        <v>0.1670925001065078</v>
       </c>
       <c r="T7">
-        <v>0.2312443037369014</v>
+        <v>0.1670925001065079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>225.401984005126</v>
+        <v>226.082006</v>
       </c>
       <c r="H8">
-        <v>225.401984005126</v>
+        <v>678.246018</v>
       </c>
       <c r="I8">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="J8">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>13934.47158508027</v>
+        <v>14784.88297978998</v>
       </c>
       <c r="R8">
-        <v>13934.47158508027</v>
+        <v>133063.9468181098</v>
       </c>
       <c r="S8">
-        <v>0.08779089648324269</v>
+        <v>0.06703546594690006</v>
       </c>
       <c r="T8">
-        <v>0.08779089648324269</v>
+        <v>0.06703546594690007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>225.401984005126</v>
+        <v>226.082006</v>
       </c>
       <c r="H9">
-        <v>225.401984005126</v>
+        <v>678.246018</v>
       </c>
       <c r="I9">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="J9">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>31626.04216689113</v>
+        <v>32617.48328163011</v>
       </c>
       <c r="R9">
-        <v>31626.04216689113</v>
+        <v>293557.3495346711</v>
       </c>
       <c r="S9">
-        <v>0.1992525211376512</v>
+        <v>0.1478894484851958</v>
       </c>
       <c r="T9">
-        <v>0.1992525211376512</v>
+        <v>0.1478894484851958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.147772683118629</v>
+        <v>0.1600446666666666</v>
       </c>
       <c r="H10">
-        <v>0.147772683118629</v>
+        <v>0.4801339999999999</v>
       </c>
       <c r="I10">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="J10">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>13.06968861845139</v>
+        <v>15.83589546033866</v>
       </c>
       <c r="R10">
-        <v>13.06968861845139</v>
+        <v>142.523059143048</v>
       </c>
       <c r="S10">
-        <v>8.234253258653946E-05</v>
+        <v>7.18008138665215E-05</v>
       </c>
       <c r="T10">
-        <v>8.234253258653946E-05</v>
+        <v>7.18008138665215E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.147772683118629</v>
+        <v>0.1600446666666666</v>
       </c>
       <c r="H11">
-        <v>0.147772683118629</v>
+        <v>0.4801339999999999</v>
       </c>
       <c r="I11">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="J11">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>24.06292893356845</v>
+        <v>26.08827865185977</v>
       </c>
       <c r="R11">
-        <v>24.06292893356845</v>
+        <v>234.794507866738</v>
       </c>
       <c r="S11">
-        <v>0.0001516028857062945</v>
+        <v>0.0001182856785251897</v>
       </c>
       <c r="T11">
-        <v>0.0001516028857062945</v>
+        <v>0.0001182856785251897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.147772683118629</v>
+        <v>0.1600446666666666</v>
       </c>
       <c r="H12">
-        <v>0.147772683118629</v>
+        <v>0.4801339999999999</v>
       </c>
       <c r="I12">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="J12">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>9.135386554187471</v>
+        <v>10.46629809276445</v>
       </c>
       <c r="R12">
-        <v>9.135386554187471</v>
+        <v>94.19668283488001</v>
       </c>
       <c r="S12">
-        <v>5.755537771319509E-05</v>
+        <v>4.74547664899802E-05</v>
       </c>
       <c r="T12">
-        <v>5.755537771319509E-05</v>
+        <v>4.745476648998021E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.147772683118629</v>
+        <v>0.1600446666666666</v>
       </c>
       <c r="H13">
-        <v>0.147772683118629</v>
+        <v>0.4801339999999999</v>
       </c>
       <c r="I13">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="J13">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>20.73391291586022</v>
+        <v>23.09009165158444</v>
       </c>
       <c r="R13">
-        <v>20.73391291586022</v>
+        <v>207.81082486426</v>
       </c>
       <c r="S13">
-        <v>0.0001306291947545255</v>
+        <v>0.0001046917351146041</v>
       </c>
       <c r="T13">
-        <v>0.0001306291947545255</v>
+        <v>0.0001046917351146041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>101.466678790994</v>
+        <v>105.7015583333333</v>
       </c>
       <c r="H14">
-        <v>101.466678790994</v>
+        <v>317.104675</v>
       </c>
       <c r="I14">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="J14">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>8974.174853968912</v>
+        <v>10458.82291877823</v>
       </c>
       <c r="R14">
-        <v>8974.174853968912</v>
+        <v>94129.40626900409</v>
       </c>
       <c r="S14">
-        <v>0.05653970090052508</v>
+        <v>0.04742087364335539</v>
       </c>
       <c r="T14">
-        <v>0.05653970090052508</v>
+        <v>0.04742087364335539</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>101.466678790994</v>
+        <v>105.7015583333333</v>
       </c>
       <c r="H15">
-        <v>101.466678790994</v>
+        <v>317.104675</v>
       </c>
       <c r="I15">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="J15">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>16522.57663152024</v>
+        <v>17230.01312801725</v>
       </c>
       <c r="R15">
-        <v>16522.57663152024</v>
+        <v>155070.1181521552</v>
       </c>
       <c r="S15">
-        <v>0.1040966502272918</v>
+        <v>0.07812181942100488</v>
       </c>
       <c r="T15">
-        <v>0.1040966502272918</v>
+        <v>0.07812181942100489</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>101.466678790994</v>
+        <v>105.7015583333333</v>
       </c>
       <c r="H16">
-        <v>101.466678790994</v>
+        <v>317.104675</v>
       </c>
       <c r="I16">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="J16">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>6272.724522306863</v>
+        <v>6912.470383599557</v>
       </c>
       <c r="R16">
-        <v>6272.724522306863</v>
+        <v>62212.23345239601</v>
       </c>
       <c r="S16">
-        <v>0.03951984155576915</v>
+        <v>0.03134151779504485</v>
       </c>
       <c r="T16">
-        <v>0.03951984155576915</v>
+        <v>0.03134151779504486</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>101.466678790994</v>
+        <v>105.7015583333333</v>
       </c>
       <c r="H17">
-        <v>101.466678790994</v>
+        <v>317.104675</v>
       </c>
       <c r="I17">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="J17">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>14236.74008967639</v>
+        <v>15249.8594327748</v>
       </c>
       <c r="R17">
-        <v>14236.74008967639</v>
+        <v>137248.7348949733</v>
       </c>
       <c r="S17">
-        <v>0.08969526887620481</v>
+        <v>0.06914369454923544</v>
       </c>
       <c r="T17">
-        <v>0.08969526887620481</v>
+        <v>0.06914369454923545</v>
       </c>
     </row>
   </sheetData>
